--- a/tmp/アンケート結果.xlsx
+++ b/tmp/アンケート結果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94244E4-67CF-4A45-88FA-D4874ABFF1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8851474-5C51-4794-BB0E-2E776B310CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{548B1AE1-8DFC-452B-877F-25F8E1FB5F7C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -402,12 +402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全問回答</t>
-  </si>
-  <si>
-    <t>(すべて)</t>
-  </si>
-  <si>
     <t>回答数</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -415,6 +409,21 @@
     <rPh sb="2" eb="3">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -651,7 +660,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$B$17</c:f>
+              <c:f>Sheet4!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -686,9 +695,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -714,15 +723,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -730,10 +745,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$18:$B$29</c:f>
+              <c:f>Sheet4!$B$23:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>13.333333333333334</c:v>
                 </c:pt>
@@ -759,16 +774,22 @@
                   <c:v>81.818181818181827</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>21.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5238095238095237</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>42.857142857142854</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>27.777777777777779</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.428571428571427</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37.106918238993707</c:v>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,7 +806,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$C$17</c:f>
+              <c:f>Sheet4!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -820,9 +841,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -848,15 +869,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -864,10 +891,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$C$18:$C$29</c:f>
+              <c:f>Sheet4!$C$23:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -893,16 +920,22 @@
                   <c:v>63.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>14.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5238095238095237</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>28.571428571428569</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>38.888888888888893</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.333333333333329</c:v>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.888888888888893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,7 +952,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$D$17</c:f>
+              <c:f>Sheet4!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -954,9 +987,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -982,15 +1015,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -998,10 +1037,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$D$18:$D$29</c:f>
+              <c:f>Sheet4!$D$23:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -1027,16 +1066,22 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>57.142857142857139</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>57.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>38.888888888888893</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61.0062893081761</c:v>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.888888888888893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,7 +1098,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$E$17</c:f>
+              <c:f>Sheet4!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1088,9 +1133,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1116,15 +1161,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -1132,10 +1183,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$E$18:$E$29</c:f>
+              <c:f>Sheet4!$E$23:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>53.333333333333336</c:v>
                 </c:pt>
@@ -1161,16 +1212,22 @@
                   <c:v>81.818181818181827</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>35.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5238095238095237</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>57.142857142857139</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>61.111111111111114</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>35.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47.79874213836478</c:v>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.111111111111114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,7 +1244,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$F$17</c:f>
+              <c:f>Sheet4!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1222,9 +1279,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1250,15 +1307,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -1266,10 +1329,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$F$18:$F$29</c:f>
+              <c:f>Sheet4!$F$23:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>33.333333333333329</c:v>
                 </c:pt>
@@ -1295,16 +1358,22 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>71.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>57.142857142857139</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.428571428571431</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55.974842767295598</c:v>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,7 +1390,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$G$17</c:f>
+              <c:f>Sheet4!$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1356,9 +1425,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1384,15 +1453,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -1400,10 +1475,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$G$18:$G$29</c:f>
+              <c:f>Sheet4!$G$23:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>73.333333333333329</c:v>
                 </c:pt>
@@ -1429,16 +1504,22 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>57.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>85.714285714285708</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>72.222222222222214</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.142857142857139</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>74.842767295597483</c:v>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.222222222222214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1536,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$H$17</c:f>
+              <c:f>Sheet4!$H$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1496,9 +1577,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1524,15 +1605,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -1540,10 +1627,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$H$18:$H$29</c:f>
+              <c:f>Sheet4!$H$23:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>86.666666666666671</c:v>
                 </c:pt>
@@ -1569,16 +1656,22 @@
                   <c:v>90.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>57.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>64.285714285714292</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.142857142857139</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61.635220125786162</c:v>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,7 +1688,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$I$17</c:f>
+              <c:f>Sheet4!$I$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1636,9 +1729,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1664,15 +1757,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -1680,10 +1779,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$I$18:$I$29</c:f>
+              <c:f>Sheet4!$I$23:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>26.666666666666668</c:v>
                 </c:pt>
@@ -1709,16 +1808,22 @@
                   <c:v>72.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>28.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>42.857142857142854</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>22.222222222222221</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.571428571428569</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35.849056603773583</c:v>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,7 +1840,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$J$17</c:f>
+              <c:f>Sheet4!$J$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1776,9 +1881,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1804,15 +1909,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -1820,10 +1931,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$J$18:$J$29</c:f>
+              <c:f>Sheet4!$J$23:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>73.333333333333329</c:v>
                 </c:pt>
@@ -1849,16 +1960,22 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>85.714285714285708</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>77.777777777777786</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>74.213836477987414</c:v>
+                <c:pt idx="13">
+                  <c:v>77.777777777777786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,7 +1992,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$K$17</c:f>
+              <c:f>Sheet4!$K$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1916,9 +2033,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$18:$A$29</c:f>
+              <c:f>Sheet4!$A$23:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1944,15 +2061,21 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>9-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>合計</c:v>
                 </c:pt>
               </c:strCache>
@@ -1960,10 +2083,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$K$18:$K$29</c:f>
+              <c:f>Sheet4!$K$23:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>53.333333333333336</c:v>
                 </c:pt>
@@ -1989,16 +2112,22 @@
                   <c:v>90.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>64.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>44.444444444444443</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>64.285714285714292</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59.119496855345908</c:v>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.444444444444443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,7 +2408,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$67</c:f>
+              <c:f>Sheet4!$A$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2300,7 +2429,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2338,7 +2467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$67:$K$67</c:f>
+              <c:f>Sheet4!$B$74:$K$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2386,7 +2515,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$68</c:f>
+              <c:f>Sheet4!$A$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2407,7 +2536,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2445,7 +2574,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$68:$K$68</c:f>
+              <c:f>Sheet4!$B$75:$K$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2493,7 +2622,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$69</c:f>
+              <c:f>Sheet4!$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2514,7 +2643,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2552,7 +2681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$69:$K$69</c:f>
+              <c:f>Sheet4!$B$76:$K$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2600,7 +2729,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$70</c:f>
+              <c:f>Sheet4!$A$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2621,7 +2750,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2659,7 +2788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$70:$K$70</c:f>
+              <c:f>Sheet4!$B$77:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2707,7 +2836,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$71</c:f>
+              <c:f>Sheet4!$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2728,7 +2857,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2766,7 +2895,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$71:$K$71</c:f>
+              <c:f>Sheet4!$B$78:$K$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2814,7 +2943,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$72</c:f>
+              <c:f>Sheet4!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2835,7 +2964,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2873,7 +3002,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$72:$K$72</c:f>
+              <c:f>Sheet4!$B$79:$K$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2921,7 +3050,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$73</c:f>
+              <c:f>Sheet4!$A$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2944,7 +3073,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2982,7 +3111,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$73:$K$73</c:f>
+              <c:f>Sheet4!$B$80:$K$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3030,7 +3159,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$74</c:f>
+              <c:f>Sheet4!$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3053,7 +3182,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3091,7 +3220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$74:$K$74</c:f>
+              <c:f>Sheet4!$B$81:$K$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3139,7 +3268,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$75</c:f>
+              <c:f>Sheet4!$A$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3162,7 +3291,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3200,7 +3329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$75:$K$75</c:f>
+              <c:f>Sheet4!$B$82:$K$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3248,7 +3377,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$76</c:f>
+              <c:f>Sheet4!$A$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3271,7 +3400,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3309,7 +3438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$76:$K$76</c:f>
+              <c:f>Sheet4!$B$83:$K$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3357,7 +3486,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$77</c:f>
+              <c:f>Sheet4!$A$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3380,7 +3509,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$B$66:$K$66</c:f>
+              <c:f>Sheet4!$B$73:$K$73</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3418,7 +3547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$77:$K$77</c:f>
+              <c:f>Sheet4!$B$84:$K$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4756,16 +4885,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577999</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>61408</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4794,13 +4923,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4830,16 +4959,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="伊藤晋朗" refreshedDate="44548.822465625002" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="159" xr:uid="{06B81893-D42A-4191-9E75-3710B6A74381}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="伊藤晋朗" refreshedDate="44577.788879282409" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="184" xr:uid="{DE5AEEE0-A233-43AA-89FE-A629005FA338}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O160" sheet="Sheet1"/>
+    <worksheetSource ref="A1:O185" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="番号" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="159"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="184"/>
     </cacheField>
     <cacheField name="班" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="11" count="11">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="13">
         <n v="4"/>
         <n v="1"/>
         <n v="7"/>
@@ -4851,6 +4980,8 @@
         <n v="5"/>
         <n v="8"/>
         <s v="9-1"/>
+        <n v="12"/>
+        <s v="9-2"/>
       </sharedItems>
     </cacheField>
     <cacheField name="設問１" numFmtId="0">
@@ -4883,26 +5014,14 @@
     <cacheField name="設問１０" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
+    <cacheField name="回答数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
+    </cacheField>
     <cacheField name="コメント" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="備考" numFmtId="0">
       <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="全問回答" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10" count="11">
-        <n v="1"/>
-        <n v="3"/>
-        <n v="10"/>
-        <n v="2"/>
-        <n v="6"/>
-        <n v="9"/>
-        <n v="4"/>
-        <n v="8"/>
-        <n v="5"/>
-        <n v="7"/>
-        <n v="0"/>
-      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4914,7 +5033,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="159">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="184">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -4928,9 +5047,9 @@
     <m/>
     <m/>
     <m/>
+    <n v="1"/>
     <s v="P1"/>
     <m/>
-    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -4945,9 +5064,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="3"/>
@@ -4962,9 +5081,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="4"/>
@@ -4979,9 +5098,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="5"/>
@@ -4996,9 +5115,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="6"/>
@@ -5013,9 +5132,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="7"/>
@@ -5030,9 +5149,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="8"/>
@@ -5047,9 +5166,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="9"/>
@@ -5064,9 +5183,9 @@
     <m/>
     <m/>
     <m/>
+    <n v="2"/>
     <s v="P2"/>
     <m/>
-    <x v="3"/>
   </r>
   <r>
     <n v="10"/>
@@ -5081,9 +5200,9 @@
     <m/>
     <m/>
     <n v="1"/>
+    <n v="2"/>
     <s v="P3"/>
     <m/>
-    <x v="3"/>
   </r>
   <r>
     <n v="11"/>
@@ -5098,9 +5217,9 @@
     <m/>
     <m/>
     <n v="1"/>
+    <n v="2"/>
     <s v="P4"/>
     <m/>
-    <x v="3"/>
   </r>
   <r>
     <n v="12"/>
@@ -5115,9 +5234,9 @@
     <m/>
     <m/>
     <n v="1"/>
+    <n v="2"/>
     <s v="P5"/>
     <m/>
-    <x v="3"/>
   </r>
   <r>
     <n v="13"/>
@@ -5132,9 +5251,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
+    <n v="10"/>
     <s v="P6"/>
     <m/>
-    <x v="2"/>
   </r>
   <r>
     <n v="14"/>
@@ -5149,9 +5268,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="15"/>
@@ -5166,9 +5285,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="16"/>
@@ -5183,9 +5302,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="5"/>
+    <n v="9"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="17"/>
@@ -5200,9 +5319,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="18"/>
@@ -5217,9 +5336,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="19"/>
@@ -5234,9 +5353,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="20"/>
@@ -5251,9 +5370,9 @@
     <m/>
     <n v="1"/>
     <m/>
+    <n v="4"/>
     <s v="P7"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="21"/>
@@ -5268,9 +5387,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
+    <n v="8"/>
     <m/>
     <s v="都築"/>
-    <x v="7"/>
   </r>
   <r>
     <n v="22"/>
@@ -5285,9 +5404,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="23"/>
@@ -5302,9 +5421,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="24"/>
@@ -5319,9 +5438,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="25"/>
@@ -5336,9 +5455,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="26"/>
@@ -5353,9 +5472,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="27"/>
@@ -5370,9 +5489,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="28"/>
@@ -5387,9 +5506,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="29"/>
@@ -5404,9 +5523,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="30"/>
@@ -5421,9 +5540,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="31"/>
@@ -5438,9 +5557,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="32"/>
@@ -5455,9 +5574,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="33"/>
@@ -5472,9 +5591,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="34"/>
@@ -5489,9 +5608,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="35"/>
@@ -5506,9 +5625,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="36"/>
@@ -5523,9 +5642,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="37"/>
@@ -5540,9 +5659,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
+    <n v="10"/>
     <s v="P8"/>
     <m/>
-    <x v="2"/>
   </r>
   <r>
     <n v="38"/>
@@ -5557,9 +5676,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="39"/>
@@ -5574,9 +5693,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="40"/>
@@ -5591,9 +5710,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="41"/>
@@ -5608,9 +5727,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="42"/>
@@ -5625,9 +5744,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
+    <n v="5"/>
     <s v="P9"/>
     <m/>
-    <x v="8"/>
   </r>
   <r>
     <n v="43"/>
@@ -5642,9 +5761,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="44"/>
@@ -5659,9 +5778,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
+    <n v="6"/>
     <s v="P10"/>
     <m/>
-    <x v="4"/>
   </r>
   <r>
     <n v="45"/>
@@ -5676,9 +5795,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="46"/>
@@ -5693,9 +5812,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="47"/>
@@ -5710,9 +5829,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="48"/>
@@ -5727,9 +5846,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="49"/>
@@ -5744,9 +5863,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="50"/>
@@ -5761,9 +5880,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="51"/>
@@ -5778,9 +5897,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="7"/>
+    <n v="8"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="52"/>
@@ -5795,9 +5914,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="53"/>
@@ -5812,9 +5931,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="54"/>
@@ -5829,9 +5948,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="55"/>
@@ -5846,9 +5965,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="56"/>
@@ -5863,9 +5982,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="57"/>
@@ -5880,9 +5999,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="58"/>
@@ -5897,9 +6016,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="59"/>
@@ -5914,9 +6033,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="60"/>
@@ -5931,9 +6050,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="7"/>
+    <n v="8"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="61"/>
@@ -5948,9 +6067,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="5"/>
+    <n v="9"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="62"/>
@@ -5965,9 +6084,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
+    <n v="8"/>
     <s v="P11"/>
     <m/>
-    <x v="7"/>
   </r>
   <r>
     <n v="63"/>
@@ -5982,9 +6101,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="64"/>
@@ -5999,9 +6118,9 @@
     <m/>
     <m/>
     <n v="1"/>
+    <n v="4"/>
     <s v="P12"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="65"/>
@@ -6016,9 +6135,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="66"/>
@@ -6033,9 +6152,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="67"/>
@@ -6050,9 +6169,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="68"/>
@@ -6067,9 +6186,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="7"/>
+    <n v="8"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="69"/>
@@ -6084,9 +6203,9 @@
     <m/>
     <m/>
     <n v="1"/>
+    <n v="3"/>
     <s v="P13"/>
     <m/>
-    <x v="1"/>
   </r>
   <r>
     <n v="70"/>
@@ -6101,9 +6220,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
+    <n v="6"/>
     <s v="P14"/>
     <m/>
-    <x v="4"/>
   </r>
   <r>
     <n v="71"/>
@@ -6118,9 +6237,9 @@
     <m/>
     <n v="1"/>
     <m/>
+    <n v="3"/>
     <s v="P15"/>
     <m/>
-    <x v="1"/>
   </r>
   <r>
     <n v="72"/>
@@ -6135,9 +6254,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="73"/>
@@ -6152,9 +6271,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="74"/>
@@ -6169,9 +6288,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="75"/>
@@ -6186,9 +6305,9 @@
     <m/>
     <n v="1"/>
     <m/>
+    <n v="3"/>
     <s v="P16"/>
     <m/>
-    <x v="1"/>
   </r>
   <r>
     <n v="76"/>
@@ -6203,9 +6322,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="77"/>
@@ -6220,9 +6339,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="78"/>
@@ -6237,9 +6356,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="79"/>
@@ -6254,9 +6373,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
+    <n v="7"/>
     <s v="P17"/>
     <m/>
-    <x v="9"/>
   </r>
   <r>
     <n v="80"/>
@@ -6271,9 +6390,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
+    <n v="4"/>
     <s v="P18"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="81"/>
@@ -6288,9 +6407,9 @@
     <m/>
     <m/>
     <m/>
+    <n v="4"/>
     <s v="P19"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="82"/>
@@ -6305,9 +6424,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="83"/>
@@ -6322,9 +6441,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="84"/>
@@ -6339,9 +6458,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="85"/>
@@ -6356,9 +6475,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
+    <n v="10"/>
     <s v="P20"/>
     <m/>
-    <x v="2"/>
   </r>
   <r>
     <n v="86"/>
@@ -6373,9 +6492,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="87"/>
@@ -6390,9 +6509,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="88"/>
@@ -6407,9 +6526,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="89"/>
@@ -6424,9 +6543,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="90"/>
@@ -6441,9 +6560,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="91"/>
@@ -6458,9 +6577,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="92"/>
@@ -6475,9 +6594,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
+    <n v="7"/>
     <s v="P21"/>
     <m/>
-    <x v="9"/>
   </r>
   <r>
     <n v="93"/>
@@ -6492,9 +6611,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
+    <n v="10"/>
     <s v="P22"/>
     <m/>
-    <x v="2"/>
   </r>
   <r>
     <n v="94"/>
@@ -6509,9 +6628,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="95"/>
@@ -6526,9 +6645,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="96"/>
@@ -6543,9 +6662,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="7"/>
+    <n v="8"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="97"/>
@@ -6560,9 +6679,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="98"/>
@@ -6577,9 +6696,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="99"/>
@@ -6594,9 +6713,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="100"/>
@@ -6611,9 +6730,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="101"/>
@@ -6628,9 +6747,9 @@
     <m/>
     <n v="1"/>
     <m/>
+    <n v="3"/>
     <s v="P23"/>
     <m/>
-    <x v="1"/>
   </r>
   <r>
     <n v="102"/>
@@ -6645,9 +6764,9 @@
     <n v="1"/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="103"/>
@@ -6662,9 +6781,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="104"/>
@@ -6679,9 +6798,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="105"/>
@@ -6696,9 +6815,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="106"/>
@@ -6713,9 +6832,9 @@
     <m/>
     <m/>
     <n v="1"/>
+    <n v="4"/>
     <s v="P24"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="107"/>
@@ -6730,9 +6849,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="108"/>
@@ -6747,9 +6866,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
+    <n v="6"/>
     <s v="P25"/>
     <m/>
-    <x v="4"/>
   </r>
   <r>
     <n v="109"/>
@@ -6764,9 +6883,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="110"/>
@@ -6781,9 +6900,9 @@
     <m/>
     <m/>
     <m/>
+    <n v="4"/>
     <s v="P26"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="111"/>
@@ -6798,9 +6917,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="112"/>
@@ -6815,9 +6934,9 @@
     <n v="1"/>
     <m/>
     <m/>
+    <n v="4"/>
     <s v="P27"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="113"/>
@@ -6832,9 +6951,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="7"/>
+    <n v="8"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="114"/>
@@ -6849,9 +6968,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
+    <n v="5"/>
     <s v="P28"/>
     <m/>
-    <x v="8"/>
   </r>
   <r>
     <n v="115"/>
@@ -6866,9 +6985,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="116"/>
@@ -6883,9 +7002,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
+    <n v="5"/>
     <s v="P29"/>
     <m/>
-    <x v="8"/>
   </r>
   <r>
     <n v="117"/>
@@ -6900,9 +7019,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="118"/>
@@ -6917,9 +7036,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="119"/>
@@ -6934,9 +7053,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="120"/>
@@ -6951,9 +7070,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="121"/>
@@ -6968,9 +7087,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="122"/>
@@ -6985,9 +7104,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="123"/>
@@ -7002,9 +7121,9 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="124"/>
@@ -7019,9 +7138,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="125"/>
@@ -7036,9 +7155,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="126"/>
@@ -7053,9 +7172,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="127"/>
@@ -7070,9 +7189,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="128"/>
@@ -7087,9 +7206,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="129"/>
@@ -7104,9 +7223,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="130"/>
@@ -7121,9 +7240,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="131"/>
@@ -7138,9 +7257,9 @@
     <n v="1"/>
     <m/>
     <n v="1"/>
+    <n v="4"/>
     <s v="P30"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="132"/>
@@ -7155,9 +7274,9 @@
     <n v="1"/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="133"/>
@@ -7172,9 +7291,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="134"/>
@@ -7189,9 +7308,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="135"/>
@@ -7206,9 +7325,9 @@
     <n v="1"/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="7"/>
+    <n v="8"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="136"/>
@@ -7223,9 +7342,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="137"/>
@@ -7240,9 +7359,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="138"/>
@@ -7257,9 +7376,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="139"/>
@@ -7274,9 +7393,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="140"/>
@@ -7291,9 +7410,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="141"/>
@@ -7308,9 +7427,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="142"/>
@@ -7325,9 +7444,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="7"/>
+    <n v="8"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="143"/>
@@ -7342,9 +7461,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
+    <n v="8"/>
     <s v="P31"/>
     <m/>
-    <x v="7"/>
   </r>
   <r>
     <n v="144"/>
@@ -7359,9 +7478,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="7"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="145"/>
@@ -7376,9 +7495,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="146"/>
@@ -7393,9 +7512,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="8"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="147"/>
@@ -7410,9 +7529,9 @@
     <n v="1"/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="148"/>
@@ -7427,9 +7546,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="149"/>
@@ -7444,9 +7563,9 @@
     <m/>
     <m/>
     <m/>
+    <n v="0"/>
     <s v="P32"/>
     <m/>
-    <x v="10"/>
   </r>
   <r>
     <n v="150"/>
@@ -7461,9 +7580,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="151"/>
@@ -7478,9 +7597,9 @@
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="152"/>
@@ -7495,9 +7614,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="153"/>
@@ -7512,9 +7631,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="4"/>
+    <n v="6"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="154"/>
@@ -7529,9 +7648,9 @@
     <n v="1"/>
     <m/>
     <n v="1"/>
+    <n v="7"/>
     <s v="P33"/>
     <m/>
-    <x v="9"/>
   </r>
   <r>
     <n v="155"/>
@@ -7546,9 +7665,9 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
+    <n v="4"/>
     <s v="P34"/>
     <m/>
-    <x v="6"/>
   </r>
   <r>
     <n v="156"/>
@@ -7563,9 +7682,9 @@
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <n v="10"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="157"/>
@@ -7580,9 +7699,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="158"/>
@@ -7597,9 +7716,9 @@
     <m/>
     <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="159"/>
@@ -7614,20 +7733,445 @@
     <m/>
     <n v="1"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="160"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="161"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="162"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="163"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="164"/>
+    <x v="12"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="165"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <s v="Pxx"/>
+    <m/>
+  </r>
+  <r>
+    <n v="166"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="167"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="168"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="169"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="170"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="171"/>
+    <x v="12"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="172"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="173"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="174"/>
+    <x v="12"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="175"/>
+    <x v="12"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="176"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="177"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="178"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="179"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="181"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="182"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="183"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="184"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9955052-7C21-46F4-9561-134AD58167BC}" name="ピボットテーブル5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" missingCaption="0" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:L15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE55EC36-2A36-4A22-8168-730FC188B1ED}" name="ピボットテーブル5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" missingCaption="0" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="14">
         <item x="1"/>
         <item x="5"/>
         <item x="7"/>
@@ -7636,9 +8180,11 @@
         <item x="6"/>
         <item x="2"/>
         <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7654,27 +8200,12 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item x="10"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="14">
     <i>
       <x/>
     </i>
@@ -7707,6 +8238,12 @@
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -7750,9 +8287,6 @@
       <x v="10"/>
     </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="14" hier="-1"/>
-  </pageFields>
   <dataFields count="11">
     <dataField name="合計 / 設問１" fld="2" baseField="0" baseItem="0"/>
     <dataField name="合計 / 設問２" fld="3" baseField="0" baseItem="0"/>
@@ -8075,10 +8609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AD7B7E-C510-479C-85CA-B3031BD35F14}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A3:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8359,14 +8893,6 @@
     <col min="320" max="320" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>51</v>
@@ -8710,2003 +9236,1919 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="7">
+      <c r="A12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="G12" s="5">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="5">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5">
-        <v>8</v>
-      </c>
-      <c r="G12" s="5">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="J12" s="5">
+        <v>7</v>
+      </c>
+      <c r="K12" s="5">
         <v>9</v>
-      </c>
-      <c r="I12" s="5">
-        <v>6</v>
-      </c>
-      <c r="J12" s="5">
-        <v>12</v>
-      </c>
-      <c r="K12" s="5">
-        <v>7</v>
       </c>
       <c r="L12" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="7">
-        <v>11</v>
+      <c r="A13" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>9</v>
+      </c>
+      <c r="K13" s="5">
+        <v>12</v>
+      </c>
+      <c r="L13" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5">
+        <v>9</v>
+      </c>
+      <c r="I14" s="5">
+        <v>6</v>
+      </c>
+      <c r="J14" s="5">
+        <v>12</v>
+      </c>
+      <c r="K14" s="5">
         <v>7</v>
-      </c>
-      <c r="D13" s="5">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5">
-        <v>9</v>
-      </c>
-      <c r="I13" s="5">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5">
-        <v>14</v>
-      </c>
-      <c r="K13" s="5">
-        <v>8</v>
-      </c>
-      <c r="L13" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5">
-        <v>5</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5">
-        <v>8</v>
-      </c>
-      <c r="H14" s="5">
-        <v>8</v>
-      </c>
-      <c r="I14" s="5">
-        <v>4</v>
-      </c>
-      <c r="J14" s="5">
-        <v>7</v>
-      </c>
-      <c r="K14" s="5">
-        <v>9</v>
       </c>
       <c r="L14" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5">
+        <v>9</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5">
+        <v>8</v>
+      </c>
+      <c r="L15" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="5">
-        <v>59</v>
-      </c>
-      <c r="C15" s="5">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5">
-        <v>97</v>
-      </c>
-      <c r="E15" s="5">
-        <v>76</v>
-      </c>
-      <c r="F15" s="5">
-        <v>89</v>
-      </c>
-      <c r="G15" s="5">
-        <v>119</v>
-      </c>
-      <c r="H15" s="5">
-        <v>98</v>
-      </c>
-      <c r="I15" s="5">
-        <v>57</v>
-      </c>
-      <c r="J15" s="5">
-        <v>118</v>
-      </c>
-      <c r="K15" s="5">
-        <v>94</v>
-      </c>
-      <c r="L15" s="5">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+      <c r="B17" s="5">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5">
+        <v>110</v>
+      </c>
+      <c r="E17" s="5">
+        <v>80</v>
+      </c>
+      <c r="F17" s="5">
+        <v>103</v>
+      </c>
+      <c r="G17" s="5">
+        <v>135</v>
+      </c>
+      <c r="H17" s="5">
+        <v>105</v>
+      </c>
+      <c r="I17" s="5">
+        <v>58</v>
+      </c>
+      <c r="J17" s="5">
+        <v>129</v>
+      </c>
+      <c r="K17" s="5">
+        <v>106</v>
+      </c>
+      <c r="L17" s="5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F22" t="s">
         <v>69</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I22" t="s">
         <v>72</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J22" t="s">
         <v>73</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23">
         <f>A4</f>
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <f>B4/$L4*100</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18:K18" si="0">C4/$L4*100</f>
+      <c r="C23">
+        <f t="shared" ref="C23:K23" si="0">C4/$L4*100</f>
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E18">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="F18">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="G18">
+      <c r="G23">
         <f t="shared" si="0"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="H18">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
-      <c r="I18">
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>26.666666666666668</v>
       </c>
-      <c r="J18">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="K18">
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <f t="shared" ref="A19:A28" si="1">A5</f>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f t="shared" ref="A24:A35" si="1">A5</f>
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <f>B5/$L5*100</f>
         <v>63.157894736842103</v>
       </c>
-      <c r="C19">
-        <f t="shared" ref="C19:K19" si="2">C5/$L5*100</f>
+      <c r="C24">
+        <f t="shared" ref="C24:K24" si="2">C5/$L5*100</f>
         <v>68.421052631578945</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <f t="shared" si="2"/>
         <v>78.94736842105263</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <f t="shared" si="2"/>
         <v>78.94736842105263</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <f t="shared" si="2"/>
         <v>63.157894736842103</v>
       </c>
-      <c r="G19">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>94.73684210526315</v>
       </c>
-      <c r="H19">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>89.473684210526315</v>
       </c>
-      <c r="I19">
+      <c r="I24">
         <f t="shared" si="2"/>
         <v>52.631578947368418</v>
       </c>
-      <c r="J19">
+      <c r="J24">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K19">
+      <c r="K24">
         <f t="shared" si="2"/>
         <v>84.210526315789465</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B20">
-        <f t="shared" ref="B20:K20" si="3">B6/$L6*100</f>
+      <c r="B25">
+        <f t="shared" ref="B25:K25" si="3">B6/$L6*100</f>
         <v>26.315789473684209</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <f t="shared" si="3"/>
         <v>36.84210526315789</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <f t="shared" si="3"/>
         <v>78.94736842105263</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <f t="shared" si="3"/>
         <v>47.368421052631575</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <f t="shared" si="3"/>
         <v>42.105263157894733</v>
       </c>
-      <c r="G20">
+      <c r="G25">
         <f t="shared" si="3"/>
         <v>84.210526315789465</v>
       </c>
-      <c r="H20">
+      <c r="H25">
         <f t="shared" si="3"/>
         <v>73.68421052631578</v>
       </c>
-      <c r="I20">
+      <c r="I25">
         <f t="shared" si="3"/>
         <v>42.105263157894733</v>
       </c>
-      <c r="J20">
+      <c r="J25">
         <f t="shared" si="3"/>
         <v>89.473684210526315</v>
       </c>
-      <c r="K20">
+      <c r="K25">
         <f t="shared" si="3"/>
         <v>47.368421052631575</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B21">
-        <f t="shared" ref="B21:K21" si="4">B7/$L7*100</f>
+      <c r="B26">
+        <f t="shared" ref="B26:K26" si="4">B7/$L7*100</f>
         <v>47.619047619047613</v>
       </c>
-      <c r="C21">
+      <c r="C26">
         <f t="shared" si="4"/>
         <v>23.809523809523807</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <f t="shared" si="4"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <f t="shared" si="4"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <f t="shared" si="4"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="G21">
+      <c r="G26">
         <f t="shared" si="4"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="H21">
+      <c r="H26">
         <f t="shared" si="4"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="I21">
+      <c r="I26">
         <f t="shared" si="4"/>
         <v>23.809523809523807</v>
       </c>
-      <c r="J21">
+      <c r="J26">
         <f t="shared" si="4"/>
         <v>38.095238095238095</v>
       </c>
-      <c r="K21">
+      <c r="K26">
         <f t="shared" si="4"/>
         <v>61.904761904761905</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B22">
-        <f t="shared" ref="B22:K22" si="5">B8/$L8*100</f>
+      <c r="B27">
+        <f t="shared" ref="B27:K27" si="5">B8/$L8*100</f>
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D27">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="E27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F27">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="G22">
+      <c r="G27">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="H22">
+      <c r="H27">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="I22">
+      <c r="I27">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="J22">
+      <c r="J27">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="K22">
+      <c r="K27">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B23">
-        <f t="shared" ref="B23:K23" si="6">B9/$L9*100</f>
+      <c r="B28">
+        <f t="shared" ref="B28:K28" si="6">B9/$L9*100</f>
         <v>27.27272727272727</v>
       </c>
-      <c r="C23">
+      <c r="C28">
         <f t="shared" si="6"/>
         <v>9.0909090909090917</v>
       </c>
-      <c r="D23">
+      <c r="D28">
         <f t="shared" si="6"/>
         <v>54.54545454545454</v>
       </c>
-      <c r="E23">
+      <c r="E28">
         <f t="shared" si="6"/>
         <v>36.363636363636367</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <f t="shared" si="6"/>
         <v>45.454545454545453</v>
       </c>
-      <c r="G23">
+      <c r="G28">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="H23">
+      <c r="H28">
         <f t="shared" si="6"/>
         <v>45.454545454545453</v>
       </c>
-      <c r="I23">
+      <c r="I28">
         <f t="shared" si="6"/>
         <v>9.0909090909090917</v>
       </c>
-      <c r="J23">
+      <c r="J28">
         <f t="shared" si="6"/>
         <v>54.54545454545454</v>
       </c>
-      <c r="K23">
+      <c r="K28">
         <f t="shared" si="6"/>
         <v>54.54545454545454</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B24">
-        <f t="shared" ref="B24:K24" si="7">B10/$L10*100</f>
+      <c r="B29">
+        <f t="shared" ref="B29:K29" si="7">B10/$L10*100</f>
         <v>15.384615384615385</v>
       </c>
-      <c r="C24">
+      <c r="C29">
         <f t="shared" si="7"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="D24">
+      <c r="D29">
         <f t="shared" si="7"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="E24">
+      <c r="E29">
         <f t="shared" si="7"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <f t="shared" si="7"/>
         <v>38.461538461538467</v>
       </c>
-      <c r="G24">
+      <c r="G29">
         <f t="shared" si="7"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="H24">
+      <c r="H29">
         <f t="shared" si="7"/>
         <v>38.461538461538467</v>
       </c>
-      <c r="I24">
+      <c r="I29">
         <f t="shared" si="7"/>
         <v>38.461538461538467</v>
       </c>
-      <c r="J24">
+      <c r="J29">
         <f t="shared" si="7"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="K24">
+      <c r="K29">
         <f t="shared" si="7"/>
         <v>38.461538461538467</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B25">
-        <f t="shared" ref="B25:K25" si="8">B11/$L11*100</f>
+      <c r="B30">
+        <f t="shared" ref="B30:K30" si="8">B11/$L11*100</f>
         <v>81.818181818181827</v>
       </c>
-      <c r="C25">
+      <c r="C30">
         <f t="shared" si="8"/>
         <v>63.636363636363633</v>
       </c>
-      <c r="D25">
+      <c r="D30">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="E25">
+      <c r="E30">
         <f t="shared" si="8"/>
         <v>81.818181818181827</v>
       </c>
-      <c r="F25">
+      <c r="F30">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="G25">
+      <c r="G30">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="H25">
+      <c r="H30">
         <f t="shared" si="8"/>
         <v>90.909090909090907</v>
       </c>
-      <c r="I25">
+      <c r="I30">
         <f t="shared" si="8"/>
         <v>72.727272727272734</v>
       </c>
-      <c r="J25">
+      <c r="J30">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="K25">
+      <c r="K30">
         <f t="shared" si="8"/>
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>9-1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:K31" si="9">B12/$L12*100</f>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="9"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="9"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="9"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>64.285714285714292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>9-2</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:K32" si="10">B13/$L13*100</f>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="10"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="10"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="10"/>
+        <v>9.5238095238095237</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="10"/>
+        <v>61.904761904761905</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="10"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="10"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="10"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="10"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B26">
-        <f t="shared" ref="B26:K26" si="9">B12/$L12*100</f>
+      <c r="B33">
+        <f t="shared" ref="B33:K33" si="11">B14/$L14*100</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="9"/>
+      <c r="C33">
+        <f t="shared" si="11"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="9"/>
+      <c r="D33">
+        <f t="shared" si="11"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="9"/>
+      <c r="E33">
+        <f t="shared" si="11"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="9"/>
+      <c r="F33">
+        <f t="shared" si="11"/>
         <v>57.142857142857139</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="9"/>
+      <c r="G33">
+        <f t="shared" si="11"/>
         <v>85.714285714285708</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="9"/>
+      <c r="H33">
+        <f t="shared" si="11"/>
         <v>64.285714285714292</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="9"/>
+      <c r="I33">
+        <f t="shared" si="11"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="9"/>
+      <c r="J33">
+        <f t="shared" si="11"/>
         <v>85.714285714285708</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="9"/>
+      <c r="K33">
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B27">
-        <f t="shared" ref="B27:K27" si="10">B13/$L13*100</f>
+      <c r="B34">
+        <f t="shared" ref="B34:K34" si="12">B15/$L15*100</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="10"/>
+      <c r="C34">
+        <f t="shared" si="12"/>
         <v>38.888888888888893</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="10"/>
+      <c r="D34">
+        <f t="shared" si="12"/>
         <v>38.888888888888893</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="10"/>
+      <c r="E34">
+        <f t="shared" si="12"/>
         <v>61.111111111111114</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="10"/>
+      <c r="F34">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="10"/>
+      <c r="G34">
+        <f t="shared" si="12"/>
         <v>72.222222222222214</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="10"/>
+      <c r="H34">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="10"/>
+      <c r="I34">
+        <f t="shared" si="12"/>
         <v>22.222222222222221</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="10"/>
+      <c r="J34">
+        <f t="shared" si="12"/>
         <v>77.777777777777786</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="10"/>
+      <c r="K34">
+        <f t="shared" si="12"/>
         <v>44.444444444444443</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" t="str">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
         <f t="shared" si="1"/>
-        <v>9-1</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:K28" si="11">B14/$L14*100</f>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:K35" si="13">B16/$L16*100</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:K36" si="14">B15/$L15*100</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="14"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="14"/>
+        <v>38.888888888888893</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="14"/>
+        <v>61.111111111111114</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="14"/>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="14"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="14"/>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="14"/>
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F40">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G40">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H40">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="I40">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="J40">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="K40">
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>63.157894736842103</v>
+      </c>
+      <c r="C41">
+        <v>68.421052631578945</v>
+      </c>
+      <c r="D41">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="E41">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="F41">
+        <v>63.157894736842103</v>
+      </c>
+      <c r="G41">
+        <v>94.73684210526315</v>
+      </c>
+      <c r="H41">
+        <v>89.473684210526315</v>
+      </c>
+      <c r="I41">
+        <v>52.631578947368418</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>84.210526315789465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>26.315789473684209</v>
+      </c>
+      <c r="C42">
+        <v>36.84210526315789</v>
+      </c>
+      <c r="D42">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="E42">
+        <v>47.368421052631575</v>
+      </c>
+      <c r="F42">
+        <v>42.105263157894733</v>
+      </c>
+      <c r="G42">
+        <v>84.210526315789465</v>
+      </c>
+      <c r="H42">
+        <v>73.68421052631578</v>
+      </c>
+      <c r="I42">
+        <v>42.105263157894733</v>
+      </c>
+      <c r="J42">
+        <v>89.473684210526315</v>
+      </c>
+      <c r="K42">
+        <v>47.368421052631575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>47.619047619047613</v>
+      </c>
+      <c r="C43">
+        <v>23.809523809523807</v>
+      </c>
+      <c r="D43">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="E43">
         <v>14.285714285714285</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="11"/>
+      <c r="F43">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G43">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="H43">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I43">
+        <v>23.809523809523807</v>
+      </c>
+      <c r="J43">
+        <v>38.095238095238095</v>
+      </c>
+      <c r="K43">
+        <v>61.904761904761905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
         <v>50</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="11"/>
-        <v>35.714285714285715</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="11"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="11"/>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <v>25</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="C45">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="D45">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="E45">
+        <v>36.363636363636367</v>
+      </c>
+      <c r="F45">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="I45">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="J45">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="K45">
+        <v>54.54545454545454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="C46">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="D46">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="E46">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="F46">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="G46">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="H46">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="I46">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="J46">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="K46">
+        <v>38.461538461538467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>81.818181818181827</v>
+      </c>
+      <c r="C47">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>81.818181818181827</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="I47">
+        <v>72.727272727272734</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="C48">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="D48">
         <v>57.142857142857139</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="11"/>
+      <c r="E48">
         <v>57.142857142857139</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="11"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="11"/>
+      <c r="F48">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="G48">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="H48">
+        <v>64.285714285714292</v>
+      </c>
+      <c r="I48">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="J48">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="K48">
         <v>50</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="11"/>
-        <v>64.285714285714292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29:K29" si="12">B15/$L15*100</f>
-        <v>37.106918238993707</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="12"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="12"/>
-        <v>61.0062893081761</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="12"/>
-        <v>47.79874213836478</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="12"/>
-        <v>55.974842767295598</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="12"/>
-        <v>74.842767295597483</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="12"/>
-        <v>61.635220125786162</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="12"/>
-        <v>35.849056603773583</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="12"/>
-        <v>74.213836477987414</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="12"/>
-        <v>59.119496855345908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>13.333333333333334</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33">
-        <v>60</v>
-      </c>
-      <c r="E33">
-        <v>53.333333333333336</v>
-      </c>
-      <c r="F33">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="G33">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H33">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="I33">
-        <v>26.666666666666668</v>
-      </c>
-      <c r="J33">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="K33">
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <v>63.157894736842103</v>
-      </c>
-      <c r="C34">
-        <v>68.421052631578945</v>
-      </c>
-      <c r="D34">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="E34">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="F34">
-        <v>63.157894736842103</v>
-      </c>
-      <c r="G34">
-        <v>94.73684210526315</v>
-      </c>
-      <c r="H34">
-        <v>89.473684210526315</v>
-      </c>
-      <c r="I34">
-        <v>52.631578947368418</v>
-      </c>
-      <c r="J34">
-        <v>100</v>
-      </c>
-      <c r="K34">
-        <v>84.210526315789465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>26.315789473684209</v>
-      </c>
-      <c r="C35">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="D35">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="E35">
-        <v>47.368421052631575</v>
-      </c>
-      <c r="F35">
-        <v>42.105263157894733</v>
-      </c>
-      <c r="G35">
-        <v>84.210526315789465</v>
-      </c>
-      <c r="H35">
-        <v>73.68421052631578</v>
-      </c>
-      <c r="I35">
-        <v>42.105263157894733</v>
-      </c>
-      <c r="J35">
-        <v>89.473684210526315</v>
-      </c>
-      <c r="K35">
-        <v>47.368421052631575</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>47.619047619047613</v>
-      </c>
-      <c r="C36">
-        <v>23.809523809523807</v>
-      </c>
-      <c r="D36">
-        <v>42.857142857142854</v>
-      </c>
-      <c r="E36">
-        <v>14.285714285714285</v>
-      </c>
-      <c r="F36">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="G36">
-        <v>42.857142857142854</v>
-      </c>
-      <c r="H36">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="I36">
-        <v>23.809523809523807</v>
-      </c>
-      <c r="J36">
-        <v>38.095238095238095</v>
-      </c>
-      <c r="K36">
-        <v>61.904761904761905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="C49">
+        <v>38.888888888888893</v>
+      </c>
+      <c r="D49">
+        <v>38.888888888888893</v>
+      </c>
+      <c r="E49">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="F49">
         <v>50</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="G49">
+        <v>72.222222222222214</v>
+      </c>
+      <c r="H49">
         <v>50</v>
       </c>
-      <c r="G37">
-        <v>25</v>
-      </c>
-      <c r="H37">
-        <v>25</v>
-      </c>
-      <c r="I37">
-        <v>50</v>
-      </c>
-      <c r="J37">
-        <v>25</v>
-      </c>
-      <c r="K37">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="C38">
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="D38">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="E38">
-        <v>36.363636363636367</v>
-      </c>
-      <c r="F38">
-        <v>45.454545454545453</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38">
-        <v>45.454545454545453</v>
-      </c>
-      <c r="I38">
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="J38">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="K38">
-        <v>54.54545454545454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="C39">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="D39">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="E39">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="F39">
-        <v>38.461538461538467</v>
-      </c>
-      <c r="G39">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="H39">
-        <v>38.461538461538467</v>
-      </c>
-      <c r="I39">
-        <v>38.461538461538467</v>
-      </c>
-      <c r="J39">
-        <v>92.307692307692307</v>
-      </c>
-      <c r="K39">
-        <v>38.461538461538467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>81.818181818181827</v>
-      </c>
-      <c r="C40">
-        <v>63.636363636363633</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="E40">
-        <v>81.818181818181827</v>
-      </c>
-      <c r="F40">
-        <v>100</v>
-      </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-      <c r="H40">
-        <v>90.909090909090907</v>
-      </c>
-      <c r="I40">
-        <v>72.727272727272734</v>
-      </c>
-      <c r="J40">
-        <v>100</v>
-      </c>
-      <c r="K40">
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41">
-        <v>42.857142857142854</v>
-      </c>
-      <c r="C41">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="D41">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="E41">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="F41">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="G41">
-        <v>85.714285714285708</v>
-      </c>
-      <c r="H41">
-        <v>64.285714285714292</v>
-      </c>
-      <c r="I41">
-        <v>42.857142857142854</v>
-      </c>
-      <c r="J41">
-        <v>85.714285714285708</v>
-      </c>
-      <c r="K41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>11</v>
-      </c>
-      <c r="B42">
-        <v>27.777777777777779</v>
-      </c>
-      <c r="C42">
-        <v>38.888888888888893</v>
-      </c>
-      <c r="D42">
-        <v>38.888888888888893</v>
-      </c>
-      <c r="E42">
-        <v>61.111111111111114</v>
-      </c>
-      <c r="F42">
-        <v>50</v>
-      </c>
-      <c r="G42">
-        <v>72.222222222222214</v>
-      </c>
-      <c r="H42">
-        <v>50</v>
-      </c>
-      <c r="I42">
+      <c r="I49">
         <v>22.222222222222221</v>
       </c>
-      <c r="J42">
+      <c r="J49">
         <v>77.777777777777786</v>
       </c>
-      <c r="K42">
+      <c r="K49">
         <v>44.444444444444443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43">
-        <v>21.428571428571427</v>
-      </c>
-      <c r="C43">
-        <v>14.285714285714285</v>
-      </c>
-      <c r="D43">
-        <v>50</v>
-      </c>
-      <c r="E43">
-        <v>35.714285714285715</v>
-      </c>
-      <c r="F43">
-        <v>71.428571428571431</v>
-      </c>
-      <c r="G43">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="H43">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="I43">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="J43">
-        <v>50</v>
-      </c>
-      <c r="K43">
-        <v>64.285714285714292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44">
-        <v>37.106918238993707</v>
-      </c>
-      <c r="C44">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="D44">
-        <v>61.0062893081761</v>
-      </c>
-      <c r="E44">
-        <v>47.79874213836478</v>
-      </c>
-      <c r="F44">
-        <v>55.974842767295598</v>
-      </c>
-      <c r="G44">
-        <v>74.842767295597483</v>
-      </c>
-      <c r="H44">
-        <v>61.635220125786162</v>
-      </c>
-      <c r="I44">
-        <v>35.849056603773583</v>
-      </c>
-      <c r="J44">
-        <v>74.213836477987414</v>
-      </c>
-      <c r="K44">
-        <v>59.119496855345908</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>7</v>
-      </c>
-      <c r="I47">
-        <v>8</v>
-      </c>
-      <c r="J47">
-        <v>10</v>
-      </c>
-      <c r="K47">
-        <v>11</v>
-      </c>
-      <c r="L47" t="s">
-        <v>45</v>
-      </c>
-      <c r="M47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48">
-        <v>13.333333333333334</v>
-      </c>
-      <c r="C48">
-        <v>63.157894736842103</v>
-      </c>
-      <c r="D48">
-        <v>26.315789473684209</v>
-      </c>
-      <c r="E48">
-        <v>47.619047619047613</v>
-      </c>
-      <c r="F48">
-        <v>50</v>
-      </c>
-      <c r="G48">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="H48">
-        <v>15.384615384615385</v>
-      </c>
-      <c r="I48">
-        <v>81.818181818181827</v>
-      </c>
-      <c r="J48">
-        <v>42.857142857142854</v>
-      </c>
-      <c r="K48">
-        <v>27.777777777777779</v>
-      </c>
-      <c r="L48">
-        <v>21.428571428571427</v>
-      </c>
-      <c r="M48">
-        <v>37.106918238993707</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>68.421052631578945</v>
-      </c>
-      <c r="D49">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="E49">
-        <v>23.809523809523807</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="H49">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="I49">
-        <v>63.636363636363633</v>
-      </c>
-      <c r="J49">
-        <v>28.571428571428569</v>
-      </c>
-      <c r="K49">
-        <v>38.888888888888893</v>
-      </c>
-      <c r="L49">
-        <v>14.285714285714285</v>
-      </c>
-      <c r="M49">
-        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>60</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="C50">
-        <v>78.94736842105263</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="D50">
-        <v>78.94736842105263</v>
+        <v>50</v>
       </c>
       <c r="E50">
-        <v>42.857142857142854</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="F50">
-        <v>25</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="G50">
-        <v>54.54545454545454</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="H50">
-        <v>69.230769230769226</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I50">
-        <v>100</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="J50">
-        <v>57.142857142857139</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>38.888888888888893</v>
-      </c>
-      <c r="L50">
-        <v>50</v>
-      </c>
-      <c r="M50">
-        <v>61.0062893081761</v>
+        <v>64.285714285714292</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51">
-        <v>53.333333333333336</v>
+        <v>37.106918238993707</v>
       </c>
       <c r="C51">
-        <v>78.94736842105263</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="D51">
-        <v>47.368421052631575</v>
+        <v>61.0062893081761</v>
       </c>
       <c r="E51">
-        <v>14.285714285714285</v>
+        <v>47.79874213836478</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>55.974842767295598</v>
       </c>
       <c r="G51">
-        <v>36.363636363636367</v>
+        <v>74.842767295597483</v>
       </c>
       <c r="H51">
-        <v>30.76923076923077</v>
+        <v>61.635220125786162</v>
       </c>
       <c r="I51">
-        <v>81.818181818181827</v>
+        <v>35.849056603773583</v>
       </c>
       <c r="J51">
-        <v>57.142857142857139</v>
+        <v>74.213836477987414</v>
       </c>
       <c r="K51">
-        <v>61.111111111111114</v>
-      </c>
-      <c r="L51">
-        <v>35.714285714285715</v>
-      </c>
-      <c r="M51">
-        <v>47.79874213836478</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="C52">
-        <v>63.157894736842103</v>
-      </c>
-      <c r="D52">
-        <v>42.105263157894733</v>
-      </c>
-      <c r="E52">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="F52">
-        <v>50</v>
-      </c>
-      <c r="G52">
-        <v>45.454545454545453</v>
-      </c>
-      <c r="H52">
-        <v>38.461538461538467</v>
-      </c>
-      <c r="I52">
-        <v>100</v>
-      </c>
-      <c r="J52">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="K52">
-        <v>50</v>
-      </c>
-      <c r="L52">
-        <v>71.428571428571431</v>
-      </c>
-      <c r="M52">
-        <v>55.974842767295598</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="C53">
-        <v>94.73684210526315</v>
-      </c>
-      <c r="D53">
-        <v>84.210526315789465</v>
-      </c>
-      <c r="E53">
-        <v>42.857142857142854</v>
-      </c>
-      <c r="F53">
-        <v>25</v>
-      </c>
-      <c r="G53">
-        <v>100</v>
-      </c>
-      <c r="H53">
-        <v>69.230769230769226</v>
-      </c>
-      <c r="I53">
-        <v>100</v>
-      </c>
-      <c r="J53">
-        <v>85.714285714285708</v>
-      </c>
-      <c r="K53">
-        <v>72.222222222222214</v>
-      </c>
-      <c r="L53">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="M53">
-        <v>74.842767295597483</v>
+        <v>59.119496855345908</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
       <c r="B54">
-        <v>86.666666666666671</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>89.473684210526315</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>73.68421052631578</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>33.333333333333329</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>45.454545454545453</v>
+        <v>6</v>
       </c>
       <c r="H54">
-        <v>38.461538461538467</v>
+        <v>7</v>
       </c>
       <c r="I54">
-        <v>90.909090909090907</v>
+        <v>8</v>
       </c>
       <c r="J54">
-        <v>64.285714285714292</v>
+        <v>10</v>
       </c>
       <c r="K54">
-        <v>50</v>
-      </c>
-      <c r="L54">
-        <v>57.142857142857139</v>
-      </c>
-      <c r="M54">
-        <v>61.635220125786162</v>
+        <v>11</v>
+      </c>
+      <c r="L54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M54" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>26.666666666666668</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="C55">
-        <v>52.631578947368418</v>
+        <v>63.157894736842103</v>
       </c>
       <c r="D55">
-        <v>42.105263157894733</v>
+        <v>26.315789473684209</v>
       </c>
       <c r="E55">
-        <v>23.809523809523807</v>
+        <v>47.619047619047613</v>
       </c>
       <c r="F55">
         <v>50</v>
       </c>
       <c r="G55">
-        <v>9.0909090909090917</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="H55">
-        <v>38.461538461538467</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="I55">
-        <v>72.727272727272734</v>
+        <v>81.818181818181827</v>
       </c>
       <c r="J55">
         <v>42.857142857142854</v>
       </c>
       <c r="K55">
-        <v>22.222222222222221</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="L55">
-        <v>28.571428571428569</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="M55">
-        <v>35.849056603773583</v>
+        <v>37.106918238993707</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>73.333333333333329</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>68.421052631578945</v>
       </c>
       <c r="D56">
-        <v>89.473684210526315</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="E56">
-        <v>38.095238095238095</v>
+        <v>23.809523809523807</v>
       </c>
       <c r="F56">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>54.54545454545454</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="H56">
-        <v>92.307692307692307</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="J56">
-        <v>85.714285714285708</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="K56">
-        <v>77.777777777777786</v>
+        <v>38.888888888888893</v>
       </c>
       <c r="L56">
-        <v>50</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="M56">
-        <v>74.213836477987414</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B57">
-        <v>53.333333333333336</v>
+        <v>60</v>
       </c>
       <c r="C57">
-        <v>84.210526315789465</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="D57">
-        <v>47.368421052631575</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="E57">
-        <v>61.904761904761905</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="F57">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G57">
         <v>54.54545454545454</v>
       </c>
       <c r="H57">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="K57">
+        <v>38.888888888888893</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>61.0062893081761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="C58">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="D58">
+        <v>47.368421052631575</v>
+      </c>
+      <c r="E58">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>36.363636363636367</v>
+      </c>
+      <c r="H58">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="I58">
+        <v>81.818181818181827</v>
+      </c>
+      <c r="J58">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="K58">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="L58">
+        <v>35.714285714285715</v>
+      </c>
+      <c r="M58">
+        <v>47.79874213836478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="C59">
+        <v>63.157894736842103</v>
+      </c>
+      <c r="D59">
+        <v>42.105263157894733</v>
+      </c>
+      <c r="E59">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="H59">
         <v>38.461538461538467</v>
       </c>
-      <c r="I57">
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="K59">
+        <v>50</v>
+      </c>
+      <c r="L59">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="M59">
+        <v>55.974842767295598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="C60">
+        <v>94.73684210526315</v>
+      </c>
+      <c r="D60">
+        <v>84.210526315789465</v>
+      </c>
+      <c r="E60">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="F60">
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="K60">
+        <v>72.222222222222214</v>
+      </c>
+      <c r="L60">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="M60">
+        <v>74.842767295597483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="C61">
+        <v>89.473684210526315</v>
+      </c>
+      <c r="D61">
+        <v>73.68421052631578</v>
+      </c>
+      <c r="E61">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="F61">
+        <v>25</v>
+      </c>
+      <c r="G61">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="H61">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="I61">
         <v>90.909090909090907</v>
       </c>
-      <c r="J57">
+      <c r="J61">
+        <v>64.285714285714292</v>
+      </c>
+      <c r="K61">
         <v>50</v>
       </c>
-      <c r="K57">
+      <c r="L61">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="M61">
+        <v>61.635220125786162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="C62">
+        <v>52.631578947368418</v>
+      </c>
+      <c r="D62">
+        <v>42.105263157894733</v>
+      </c>
+      <c r="E62">
+        <v>23.809523809523807</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="H62">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="I62">
+        <v>72.727272727272734</v>
+      </c>
+      <c r="J62">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="K62">
+        <v>22.222222222222221</v>
+      </c>
+      <c r="L62">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="M62">
+        <v>35.849056603773583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>89.473684210526315</v>
+      </c>
+      <c r="E63">
+        <v>38.095238095238095</v>
+      </c>
+      <c r="F63">
+        <v>25</v>
+      </c>
+      <c r="G63">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="H63">
+        <v>92.307692307692307</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="K63">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>74.213836477987414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="C64">
+        <v>84.210526315789465</v>
+      </c>
+      <c r="D64">
+        <v>47.368421052631575</v>
+      </c>
+      <c r="E64">
+        <v>61.904761904761905</v>
+      </c>
+      <c r="F64">
+        <v>75</v>
+      </c>
+      <c r="G64">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="H64">
+        <v>38.461538461538467</v>
+      </c>
+      <c r="I64">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="J64">
+        <v>50</v>
+      </c>
+      <c r="K64">
         <v>44.444444444444443</v>
       </c>
-      <c r="L57">
+      <c r="L64">
         <v>64.285714285714292</v>
       </c>
-      <c r="M57">
+      <c r="M64">
         <v>59.119496855345908</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A66" s="8" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A73" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G73" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H73" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J73" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="K73" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67" s="7">
-        <v>1</v>
-      </c>
-      <c r="B67" s="5">
-        <v>2</v>
-      </c>
-      <c r="C67" s="5">
-        <v>3</v>
-      </c>
-      <c r="D67" s="5">
-        <v>9</v>
-      </c>
-      <c r="E67" s="5">
-        <v>8</v>
-      </c>
-      <c r="F67" s="5">
-        <v>5</v>
-      </c>
-      <c r="G67" s="5">
-        <v>11</v>
-      </c>
-      <c r="H67" s="5">
-        <v>13</v>
-      </c>
-      <c r="I67" s="5">
-        <v>4</v>
-      </c>
-      <c r="J67" s="5">
-        <v>11</v>
-      </c>
-      <c r="K67" s="5">
-        <v>8</v>
-      </c>
-      <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A68" s="7">
-        <v>2</v>
-      </c>
-      <c r="B68" s="5">
-        <v>12</v>
-      </c>
-      <c r="C68" s="5">
-        <v>13</v>
-      </c>
-      <c r="D68" s="5">
-        <v>15</v>
-      </c>
-      <c r="E68" s="5">
-        <v>15</v>
-      </c>
-      <c r="F68" s="5">
-        <v>12</v>
-      </c>
-      <c r="G68" s="5">
-        <v>18</v>
-      </c>
-      <c r="H68" s="5">
-        <v>17</v>
-      </c>
-      <c r="I68" s="5">
-        <v>10</v>
-      </c>
-      <c r="J68" s="5">
-        <v>19</v>
-      </c>
-      <c r="K68" s="5">
-        <v>16</v>
-      </c>
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A69" s="7">
-        <v>3</v>
-      </c>
-      <c r="B69" s="5">
-        <v>5</v>
-      </c>
-      <c r="C69" s="5">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5">
-        <v>15</v>
-      </c>
-      <c r="E69" s="5">
-        <v>9</v>
-      </c>
-      <c r="F69" s="5">
-        <v>8</v>
-      </c>
-      <c r="G69" s="5">
-        <v>16</v>
-      </c>
-      <c r="H69" s="5">
-        <v>14</v>
-      </c>
-      <c r="I69" s="5">
-        <v>8</v>
-      </c>
-      <c r="J69" s="5">
-        <v>17</v>
-      </c>
-      <c r="K69" s="5">
-        <v>9</v>
-      </c>
-      <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A70" s="7">
-        <v>4</v>
-      </c>
-      <c r="B70" s="5">
-        <v>10</v>
-      </c>
-      <c r="C70" s="5">
-        <v>5</v>
-      </c>
-      <c r="D70" s="5">
-        <v>9</v>
-      </c>
-      <c r="E70" s="5">
-        <v>3</v>
-      </c>
-      <c r="F70" s="5">
-        <v>14</v>
-      </c>
-      <c r="G70" s="5">
-        <v>9</v>
-      </c>
-      <c r="H70" s="5">
-        <v>7</v>
-      </c>
-      <c r="I70" s="5">
-        <v>5</v>
-      </c>
-      <c r="J70" s="5">
-        <v>8</v>
-      </c>
-      <c r="K70" s="5">
-        <v>13</v>
-      </c>
-      <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A71" s="7">
-        <v>5</v>
-      </c>
-      <c r="B71" s="5">
-        <v>2</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="5">
-        <v>2</v>
-      </c>
-      <c r="G71" s="5">
-        <v>1</v>
-      </c>
-      <c r="H71" s="5">
-        <v>1</v>
-      </c>
-      <c r="I71" s="5">
-        <v>2</v>
-      </c>
-      <c r="J71" s="5">
-        <v>1</v>
-      </c>
-      <c r="K71" s="5">
-        <v>3</v>
-      </c>
-      <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A72" s="7">
-        <v>6</v>
-      </c>
-      <c r="B72" s="5">
-        <v>3</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5">
-        <v>6</v>
-      </c>
-      <c r="E72" s="5">
-        <v>4</v>
-      </c>
-      <c r="F72" s="5">
-        <v>5</v>
-      </c>
-      <c r="G72" s="5">
-        <v>11</v>
-      </c>
-      <c r="H72" s="5">
-        <v>5</v>
-      </c>
-      <c r="I72" s="5">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5">
-        <v>6</v>
-      </c>
-      <c r="K72" s="5">
-        <v>6</v>
-      </c>
-      <c r="L72" s="5"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A73" s="7">
-        <v>7</v>
-      </c>
-      <c r="B73" s="5">
-        <v>2</v>
-      </c>
-      <c r="C73" s="5">
-        <v>4</v>
-      </c>
-      <c r="D73" s="5">
-        <v>9</v>
-      </c>
-      <c r="E73" s="5">
-        <v>4</v>
-      </c>
-      <c r="F73" s="5">
-        <v>5</v>
-      </c>
-      <c r="G73" s="5">
-        <v>9</v>
-      </c>
-      <c r="H73" s="5">
-        <v>5</v>
-      </c>
-      <c r="I73" s="5">
-        <v>5</v>
-      </c>
-      <c r="J73" s="5">
-        <v>12</v>
-      </c>
-      <c r="K73" s="5">
-        <v>5</v>
-      </c>
-      <c r="L73" s="5"/>
+      <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="7">
+        <v>1</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2</v>
+      </c>
+      <c r="C74" s="5">
+        <v>3</v>
+      </c>
+      <c r="D74" s="5">
+        <v>9</v>
+      </c>
+      <c r="E74" s="5">
         <v>8</v>
       </c>
-      <c r="B74" s="5">
-        <v>9</v>
-      </c>
-      <c r="C74" s="5">
-        <v>7</v>
-      </c>
-      <c r="D74" s="5">
-        <v>11</v>
-      </c>
-      <c r="E74" s="5">
-        <v>9</v>
-      </c>
       <c r="F74" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G74" s="5">
         <v>11</v>
       </c>
       <c r="H74" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I74" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J74" s="5">
         <v>11</v>
       </c>
       <c r="K74" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="7">
+        <v>2</v>
+      </c>
+      <c r="B75" s="5">
+        <v>12</v>
+      </c>
+      <c r="C75" s="5">
+        <v>13</v>
+      </c>
+      <c r="D75" s="5">
+        <v>15</v>
+      </c>
+      <c r="E75" s="5">
+        <v>15</v>
+      </c>
+      <c r="F75" s="5">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5">
+        <v>18</v>
+      </c>
+      <c r="H75" s="5">
+        <v>17</v>
+      </c>
+      <c r="I75" s="5">
         <v>10</v>
       </c>
-      <c r="B75" s="5">
-        <v>6</v>
-      </c>
-      <c r="C75" s="5">
-        <v>4</v>
-      </c>
-      <c r="D75" s="5">
-        <v>8</v>
-      </c>
-      <c r="E75" s="5">
-        <v>8</v>
-      </c>
-      <c r="F75" s="5">
-        <v>8</v>
-      </c>
-      <c r="G75" s="5">
-        <v>12</v>
-      </c>
-      <c r="H75" s="5">
-        <v>9</v>
-      </c>
-      <c r="I75" s="5">
-        <v>6</v>
-      </c>
       <c r="J75" s="5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K75" s="5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B76" s="5">
         <v>5</v>
@@ -10715,69 +11157,321 @@
         <v>7</v>
       </c>
       <c r="D76" s="5">
+        <v>15</v>
+      </c>
+      <c r="E76" s="5">
+        <v>9</v>
+      </c>
+      <c r="F76" s="5">
+        <v>8</v>
+      </c>
+      <c r="G76" s="5">
+        <v>16</v>
+      </c>
+      <c r="H76" s="5">
+        <v>14</v>
+      </c>
+      <c r="I76" s="5">
+        <v>8</v>
+      </c>
+      <c r="J76" s="5">
+        <v>17</v>
+      </c>
+      <c r="K76" s="5">
+        <v>9</v>
+      </c>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A77" s="7">
+        <v>4</v>
+      </c>
+      <c r="B77" s="5">
+        <v>10</v>
+      </c>
+      <c r="C77" s="5">
+        <v>5</v>
+      </c>
+      <c r="D77" s="5">
+        <v>9</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3</v>
+      </c>
+      <c r="F77" s="5">
+        <v>14</v>
+      </c>
+      <c r="G77" s="5">
+        <v>9</v>
+      </c>
+      <c r="H77" s="5">
         <v>7</v>
       </c>
-      <c r="E76" s="5">
+      <c r="I77" s="5">
+        <v>5</v>
+      </c>
+      <c r="J77" s="5">
+        <v>8</v>
+      </c>
+      <c r="K77" s="5">
+        <v>13</v>
+      </c>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A78" s="7">
+        <v>5</v>
+      </c>
+      <c r="B78" s="5">
+        <v>2</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>2</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5">
+        <v>2</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1</v>
+      </c>
+      <c r="K78" s="5">
+        <v>3</v>
+      </c>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A79" s="7">
+        <v>6</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
+        <v>6</v>
+      </c>
+      <c r="E79" s="5">
+        <v>4</v>
+      </c>
+      <c r="F79" s="5">
+        <v>5</v>
+      </c>
+      <c r="G79" s="5">
         <v>11</v>
       </c>
-      <c r="F76" s="5">
+      <c r="H79" s="5">
+        <v>5</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1</v>
+      </c>
+      <c r="J79" s="5">
+        <v>6</v>
+      </c>
+      <c r="K79" s="5">
+        <v>6</v>
+      </c>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A80" s="7">
+        <v>7</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2</v>
+      </c>
+      <c r="C80" s="5">
+        <v>4</v>
+      </c>
+      <c r="D80" s="5">
         <v>9</v>
       </c>
-      <c r="G76" s="5">
+      <c r="E80" s="5">
+        <v>4</v>
+      </c>
+      <c r="F80" s="5">
+        <v>5</v>
+      </c>
+      <c r="G80" s="5">
+        <v>9</v>
+      </c>
+      <c r="H80" s="5">
+        <v>5</v>
+      </c>
+      <c r="I80" s="5">
+        <v>5</v>
+      </c>
+      <c r="J80" s="5">
+        <v>12</v>
+      </c>
+      <c r="K80" s="5">
+        <v>5</v>
+      </c>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A81" s="7">
+        <v>8</v>
+      </c>
+      <c r="B81" s="5">
+        <v>9</v>
+      </c>
+      <c r="C81" s="5">
+        <v>7</v>
+      </c>
+      <c r="D81" s="5">
+        <v>11</v>
+      </c>
+      <c r="E81" s="5">
+        <v>9</v>
+      </c>
+      <c r="F81" s="5">
+        <v>11</v>
+      </c>
+      <c r="G81" s="5">
+        <v>11</v>
+      </c>
+      <c r="H81" s="5">
+        <v>10</v>
+      </c>
+      <c r="I81" s="5">
+        <v>8</v>
+      </c>
+      <c r="J81" s="5">
+        <v>11</v>
+      </c>
+      <c r="K81" s="5">
+        <v>10</v>
+      </c>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A82" s="7">
+        <v>10</v>
+      </c>
+      <c r="B82" s="5">
+        <v>6</v>
+      </c>
+      <c r="C82" s="5">
+        <v>4</v>
+      </c>
+      <c r="D82" s="5">
+        <v>8</v>
+      </c>
+      <c r="E82" s="5">
+        <v>8</v>
+      </c>
+      <c r="F82" s="5">
+        <v>8</v>
+      </c>
+      <c r="G82" s="5">
+        <v>12</v>
+      </c>
+      <c r="H82" s="5">
+        <v>9</v>
+      </c>
+      <c r="I82" s="5">
+        <v>6</v>
+      </c>
+      <c r="J82" s="5">
+        <v>12</v>
+      </c>
+      <c r="K82" s="5">
+        <v>7</v>
+      </c>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A83" s="7">
+        <v>11</v>
+      </c>
+      <c r="B83" s="5">
+        <v>5</v>
+      </c>
+      <c r="C83" s="5">
+        <v>7</v>
+      </c>
+      <c r="D83" s="5">
+        <v>7</v>
+      </c>
+      <c r="E83" s="5">
+        <v>11</v>
+      </c>
+      <c r="F83" s="5">
+        <v>9</v>
+      </c>
+      <c r="G83" s="5">
         <v>13</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H83" s="5">
         <v>9</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I83" s="5">
         <v>4</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J83" s="5">
         <v>14</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K83" s="5">
         <v>8</v>
       </c>
-      <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A77" s="7" t="s">
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A84" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B84" s="5">
         <v>3</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C84" s="5">
         <v>2</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D84" s="5">
         <v>7</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E84" s="5">
         <v>5</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F84" s="5">
         <v>10</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G84" s="5">
         <v>8</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H84" s="5">
         <v>8</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I84" s="5">
         <v>4</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J84" s="5">
         <v>7</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K84" s="5">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B18:K29">
+  <conditionalFormatting sqref="B23:K36">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -10807,7 +11501,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B18:K29</xm:sqref>
+          <xm:sqref>B23:K36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10817,11 +11511,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A68DC12-AC7C-458E-9507-619B3FF384B3}">
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O162" sqref="O162"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O168" sqref="O168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10867,7 +11561,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -14541,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="M130">
-        <f t="shared" ref="M130:M164" si="4">SUM(C130:L130)</f>
+        <f t="shared" ref="M130:M185" si="4">SUM(C130:L130)</f>
         <v>10</v>
       </c>
     </row>
@@ -15469,7 +16163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -15487,7 +16181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -15505,7 +16199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -15523,7 +16217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -15542,6 +16236,489 @@
       <c r="M164">
         <f t="shared" si="4"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
+      <c r="K166" s="3">
+        <v>1</v>
+      </c>
+      <c r="L166" s="3">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N166" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>1</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+      <c r="I167" s="3">
+        <v>1</v>
+      </c>
+      <c r="J167" s="3">
+        <v>1</v>
+      </c>
+      <c r="L167" s="3">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>1</v>
+      </c>
+      <c r="L168" s="3">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G169" s="3">
+        <v>1</v>
+      </c>
+      <c r="H169" s="3">
+        <v>1</v>
+      </c>
+      <c r="I169" s="3">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N169" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="I170" s="3">
+        <v>1</v>
+      </c>
+      <c r="K170" s="3">
+        <v>1</v>
+      </c>
+      <c r="L170" s="3">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G171" s="3">
+        <v>1</v>
+      </c>
+      <c r="H171" s="3">
+        <v>1</v>
+      </c>
+      <c r="K171" s="3">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>1</v>
+      </c>
+      <c r="H172" s="3">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="K173" s="3">
+        <v>1</v>
+      </c>
+      <c r="L173" s="3">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H174" s="3">
+        <v>1</v>
+      </c>
+      <c r="I174" s="3">
+        <v>1</v>
+      </c>
+      <c r="K174" s="3">
+        <v>1</v>
+      </c>
+      <c r="L174" s="3">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="L175" s="3">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N175" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="L176" s="3">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N176" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="L178" s="3">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="L179" s="3">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>1</v>
+      </c>
+      <c r="H180" s="3">
+        <v>1</v>
+      </c>
+      <c r="K180" s="3">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>1</v>
+      </c>
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="3">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="I183" s="3">
+        <v>1</v>
+      </c>
+      <c r="K183" s="3">
+        <v>1</v>
+      </c>
+      <c r="L183" s="3">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>1</v>
+      </c>
+      <c r="K184" s="3">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>1</v>
+      </c>
+      <c r="H185" s="3">
+        <v>1</v>
+      </c>
+      <c r="K185" s="3">
+        <v>1</v>
+      </c>
+      <c r="L185" s="3">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
